--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>2014年1月</t>
   </si>
@@ -140,72 +140,39 @@
     <t>%2013_1</t>
   </si>
   <si>
-    <t>11：29：40</t>
-  </si>
-  <si>
     <t>%2013_2</t>
   </si>
   <si>
-    <t>11：29：59</t>
-  </si>
-  <si>
     <t>%2013_3</t>
   </si>
   <si>
-    <t>11：29：44</t>
-  </si>
-  <si>
     <t>2013_4</t>
   </si>
   <si>
-    <t>11：27：04</t>
-  </si>
-  <si>
     <t>2013_5</t>
   </si>
   <si>
-    <t>11：29：26</t>
-  </si>
-  <si>
     <t>2013_6</t>
   </si>
   <si>
-    <t>11：21：22</t>
-  </si>
-  <si>
     <t>2013_7</t>
   </si>
   <si>
-    <t>11：29：22</t>
-  </si>
-  <si>
     <t>2013_8</t>
   </si>
   <si>
-    <t>11：29：24</t>
-  </si>
-  <si>
     <t>2013_9</t>
   </si>
   <si>
     <t>%2013_10</t>
   </si>
   <si>
-    <t>11：29：56</t>
-  </si>
-  <si>
     <t>2013_11</t>
   </si>
   <si>
-    <t>11：29：34</t>
-  </si>
-  <si>
     <t>2013_12</t>
   </si>
   <si>
-    <t>11：29：50</t>
-  </si>
-  <si>
     <t>2014_1</t>
   </si>
   <si>
@@ -252,6 +219,75 @@
   </si>
   <si>
     <t>2015_4</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>投标人数/投放数量</t>
+  </si>
+  <si>
+    <t>最低成交价-警示价格</t>
+  </si>
+  <si>
+    <t>平均成交价-警示价格</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.59</t>
+  </si>
+  <si>
+    <t>29.44</t>
+  </si>
+  <si>
+    <t>29.26</t>
+  </si>
+  <si>
+    <t>29.22</t>
+  </si>
+  <si>
+    <t>29.24</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>29.34</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>27.04</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>29.54</t>
+  </si>
+  <si>
+    <t>29.48</t>
+  </si>
+  <si>
+    <t>29.45</t>
+  </si>
+  <si>
+    <t>29.52</t>
+  </si>
+  <si>
+    <t>29.49</t>
+  </si>
+  <si>
+    <t>29.41</t>
+  </si>
+  <si>
+    <t>20.16</t>
+  </si>
+  <si>
+    <t>02.48</t>
   </si>
 </sst>
 </file>
@@ -267,12 +303,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,9 +335,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,52 +882,52 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.47915509259259265</c:v>
+                  <c:v>29.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47898148148148145</c:v>
+                  <c:v>29.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47902777777777777</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47899305555555555</c:v>
+                  <c:v>29.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47902777777777777</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47899305555555555</c:v>
+                  <c:v>29.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47915509259259265</c:v>
+                  <c:v>29.59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47898148148148145</c:v>
+                  <c:v>29.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47907407407407404</c:v>
+                  <c:v>29.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47915509259259265</c:v>
+                  <c:v>29.59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47905092592592591</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47912037037037036</c:v>
+                  <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.46027777777777779</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47903935185185187</c:v>
+                  <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.47240740740740739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47894675925925928</c:v>
+                  <c:v>29.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,11 +1335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="199327072"/>
-        <c:axId val="199300696"/>
+        <c:axId val="203768152"/>
+        <c:axId val="204334400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199327072"/>
+        <c:axId val="203768152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199300696"/>
+        <c:crossAx val="204334400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199300696"/>
+        <c:axId val="204334400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1441,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199327072"/>
+        <c:crossAx val="203768152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2344,13 +2400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2392,7 +2455,7 @@
         <v>73501</v>
       </c>
       <c r="E2" s="1">
-        <v>0.47915509259259265</v>
+        <v>29.59</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2418,7 +2481,7 @@
         <v>73357</v>
       </c>
       <c r="E3" s="1">
-        <v>0.47898148148148145</v>
+        <v>29.44</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2444,7 +2507,7 @@
         <v>73872</v>
       </c>
       <c r="E4" s="1">
-        <v>0.47902777777777777</v>
+        <v>29.48</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2470,7 +2533,7 @@
         <v>74113</v>
       </c>
       <c r="E5" s="1">
-        <v>0.47899305555555555</v>
+        <v>29.45</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -2496,7 +2559,7 @@
         <v>74503</v>
       </c>
       <c r="E6" s="1">
-        <v>0.47902777777777777</v>
+        <v>29.48</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -2522,7 +2585,7 @@
         <v>73896</v>
       </c>
       <c r="E7" s="1">
-        <v>0.47899305555555555</v>
+        <v>29.45</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2548,7 +2611,7 @@
         <v>74680</v>
       </c>
       <c r="E8" s="1">
-        <v>0.47915509259259265</v>
+        <v>29.59</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -2574,7 +2637,7 @@
         <v>73785</v>
       </c>
       <c r="E9" s="1">
-        <v>0.47898148148148145</v>
+        <v>29.44</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -2600,7 +2663,7 @@
         <v>73875</v>
       </c>
       <c r="E10" s="1">
-        <v>0.47907407407407404</v>
+        <v>29.52</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -2626,7 +2689,7 @@
         <v>74075</v>
       </c>
       <c r="E11" s="1">
-        <v>0.47915509259259265</v>
+        <v>29.59</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -2652,7 +2715,7 @@
         <v>73633</v>
       </c>
       <c r="E12" s="1">
-        <v>0.47905092592592591</v>
+        <v>29.5</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -2678,7 +2741,7 @@
         <v>73687</v>
       </c>
       <c r="E13" s="1">
-        <v>0.47912037037037036</v>
+        <v>29.56</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2730,7 +2793,7 @@
         <v>76618</v>
       </c>
       <c r="E15" s="1">
-        <v>0.47903935185185187</v>
+        <v>29.49</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -2768,7 +2831,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2782,7 +2845,7 @@
         <v>80759</v>
       </c>
       <c r="E17" s="1">
-        <v>0.47894675925925928</v>
+        <v>29.41</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -2794,99 +2857,158 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>9000</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>75000</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>75332</v>
       </c>
-      <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="4">
         <v>65</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>20857</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <f>H32/C32</f>
         <v>2.3174444444444444</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
+      <c r="K32" s="4">
+        <f>D32-I32</f>
+        <v>75000</v>
+      </c>
+      <c r="L32" s="4">
+        <f>E32-I32</f>
+        <v>75332</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="4">
         <v>9000</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>83300</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>83571</v>
       </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="4">
         <v>113</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>24651</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <f t="shared" ref="J33:J59" si="0">H33/C33</f>
         <v>2.7389999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
+      <c r="K33" s="4">
+        <f t="shared" ref="K33:K59" si="1">D33-I33</f>
+        <v>83300</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" ref="L33:L59" si="2">E33-I33</f>
+        <v>83571</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="4">
         <v>9000</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>90800</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>91898</v>
       </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>23589</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <f t="shared" si="0"/>
         <v>2.621</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>90800</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="2"/>
+        <v>91898</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>11000</v>
@@ -2897,8 +3019,8 @@
       <c r="E35">
         <v>84101</v>
       </c>
-      <c r="F35" t="s">
-        <v>47</v>
+      <c r="F35" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2913,10 +3035,18 @@
         <f t="shared" si="0"/>
         <v>2.3794545454545455</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>9000</v>
@@ -2927,8 +3057,8 @@
       <c r="E36">
         <v>80803</v>
       </c>
-      <c r="F36" t="s">
-        <v>49</v>
+      <c r="F36" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -2943,10 +3073,18 @@
         <f t="shared" si="0"/>
         <v>2.4693333333333332</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>9000</v>
@@ -2957,8 +3095,8 @@
       <c r="E37">
         <v>77823</v>
       </c>
-      <c r="F37" t="s">
-        <v>51</v>
+      <c r="F37" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2973,10 +3111,18 @@
         <f t="shared" si="0"/>
         <v>2.3868888888888891</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>9000</v>
@@ -2987,8 +3133,8 @@
       <c r="E38">
         <v>76465</v>
       </c>
-      <c r="F38" t="s">
-        <v>53</v>
+      <c r="F38" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G38">
         <v>933</v>
@@ -3003,10 +3149,18 @@
         <f t="shared" si="0"/>
         <v>2.4234444444444443</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>9000</v>
@@ -3017,8 +3171,8 @@
       <c r="E39">
         <v>74939</v>
       </c>
-      <c r="F39" t="s">
-        <v>55</v>
+      <c r="F39" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -3033,10 +3187,18 @@
         <f t="shared" si="0"/>
         <v>2.5166666666666666</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>9000</v>
@@ -3047,8 +3209,8 @@
       <c r="E40">
         <v>73492</v>
       </c>
-      <c r="F40" s="1">
-        <v>0.47909722222222223</v>
+      <c r="F40" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G40">
         <v>96</v>
@@ -3063,40 +3225,56 @@
         <f t="shared" si="0"/>
         <v>3.9060000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="4">
         <v>10000</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>82300</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>83723</v>
       </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="4">
         <v>309</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>28887</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <f t="shared" si="0"/>
         <v>2.8887</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>82300</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>83723</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>8500</v>
@@ -3107,8 +3285,8 @@
       <c r="E42">
         <v>75717</v>
       </c>
-      <c r="F42" t="s">
-        <v>60</v>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3123,10 +3301,18 @@
         <f t="shared" si="0"/>
         <v>4.4964705882352938</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>8500</v>
@@ -3137,8 +3323,8 @@
       <c r="E43">
         <v>76093</v>
       </c>
-      <c r="F43" t="s">
-        <v>62</v>
+      <c r="F43" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="G43">
         <v>13</v>
@@ -3153,10 +3339,18 @@
         <f t="shared" si="0"/>
         <v>4.6617647058823533</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="2"/>
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>8100</v>
@@ -3167,8 +3361,8 @@
       <c r="E44">
         <v>73501</v>
       </c>
-      <c r="F44" s="1">
-        <v>0.47915509259259265</v>
+      <c r="F44" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G44">
         <v>158</v>
@@ -3183,10 +3377,18 @@
         <f t="shared" si="0"/>
         <v>5.1785185185185183</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>7400</v>
@@ -3197,8 +3399,8 @@
       <c r="E45">
         <v>73357</v>
       </c>
-      <c r="F45" s="1">
-        <v>0.47898148148148145</v>
+      <c r="F45" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G45">
         <v>347</v>
@@ -3213,10 +3415,18 @@
         <f t="shared" si="0"/>
         <v>6.1835135135135131</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="2"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>7400</v>
@@ -3227,8 +3437,8 @@
       <c r="E46">
         <v>73872</v>
       </c>
-      <c r="F46" s="1">
-        <v>0.47902777777777777</v>
+      <c r="F46" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G46">
         <v>259</v>
@@ -3243,10 +3453,18 @@
         <f t="shared" si="0"/>
         <v>8.3585135135135129</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="2"/>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>8200</v>
@@ -3257,8 +3475,8 @@
       <c r="E47">
         <v>74113</v>
       </c>
-      <c r="F47" s="1">
-        <v>0.47899305555555555</v>
+      <c r="F47" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G47">
         <v>44</v>
@@ -3273,10 +3491,18 @@
         <f t="shared" si="0"/>
         <v>11.49280487804878</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="2"/>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>7400</v>
@@ -3287,8 +3513,8 @@
       <c r="E48">
         <v>74503</v>
       </c>
-      <c r="F48" s="1">
-        <v>0.47902777777777777</v>
+      <c r="F48" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G48">
         <v>219</v>
@@ -3303,10 +3529,18 @@
         <f t="shared" si="0"/>
         <v>15.421756756756757</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="L48" s="4">
+        <f>E48-I48</f>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>7400</v>
@@ -3317,8 +3551,8 @@
       <c r="E49">
         <v>73896</v>
       </c>
-      <c r="F49" s="1">
-        <v>0.47899305555555555</v>
+      <c r="F49" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G49">
         <v>238</v>
@@ -3333,10 +3567,18 @@
         <f t="shared" si="0"/>
         <v>18.33472972972973</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>7400</v>
@@ -3347,8 +3589,8 @@
       <c r="E50">
         <v>74680</v>
       </c>
-      <c r="F50" s="1">
-        <v>0.47915509259259265</v>
+      <c r="F50" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G50">
         <v>23</v>
@@ -3363,10 +3605,18 @@
         <f t="shared" si="0"/>
         <v>18.391621621621621</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="2"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>7400</v>
@@ -3377,8 +3627,8 @@
       <c r="E51">
         <v>73785</v>
       </c>
-      <c r="F51" s="1">
-        <v>0.47898148148148145</v>
+      <c r="F51" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G51">
         <v>53</v>
@@ -3393,10 +3643,18 @@
         <f t="shared" si="0"/>
         <v>16.425675675675677</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="2"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>8300</v>
@@ -3407,8 +3665,8 @@
       <c r="E52">
         <v>73875</v>
       </c>
-      <c r="F52" s="1">
-        <v>0.47907407407407404</v>
+      <c r="F52" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G52">
         <v>183</v>
@@ -3423,10 +3681,18 @@
         <f t="shared" si="0"/>
         <v>14.725180722891567</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>7400</v>
@@ -3437,8 +3703,8 @@
       <c r="E53">
         <v>74075</v>
       </c>
-      <c r="F53" s="1">
-        <v>0.47915509259259265</v>
+      <c r="F53" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -3453,10 +3719,18 @@
         <f t="shared" si="0"/>
         <v>14.26108108108108</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="2"/>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>7400</v>
@@ -3467,8 +3741,8 @@
       <c r="E54">
         <v>73633</v>
       </c>
-      <c r="F54" s="1">
-        <v>0.47905092592592591</v>
+      <c r="F54" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G54">
         <v>77</v>
@@ -3483,10 +3757,18 @@
         <f t="shared" si="0"/>
         <v>12.918243243243243</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="2"/>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>7447</v>
@@ -3497,8 +3779,8 @@
       <c r="E55">
         <v>73687</v>
       </c>
-      <c r="F55" s="1">
-        <v>0.47912037037037036</v>
+      <c r="F55" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G55">
         <v>628</v>
@@ -3513,40 +3795,56 @@
         <f t="shared" si="0"/>
         <v>13.021619444071439</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="2"/>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4">
         <v>7990</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>74000</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>74216</v>
       </c>
-      <c r="F56" s="1">
-        <v>0.46027777777777779</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="4">
         <v>2</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="4">
         <v>98203</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>73700</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <f t="shared" si="0"/>
         <v>12.290738423028786</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>7653</v>
@@ -3557,8 +3855,8 @@
       <c r="E57">
         <v>76618</v>
       </c>
-      <c r="F57" s="1">
-        <v>0.47903935185185187</v>
+      <c r="F57" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G57">
         <v>73</v>
@@ -3573,40 +3871,56 @@
         <f t="shared" si="0"/>
         <v>13.488043904351235</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="2"/>
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="4">
         <v>7406</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>74600</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>74830</v>
       </c>
-      <c r="F58" s="1">
-        <v>0.47240740740740739</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="4">
         <v>6</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>132690</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>73700</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <f t="shared" si="0"/>
         <v>17.916554145287606</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="4">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>8288</v>
@@ -3617,8 +3931,8 @@
       <c r="E59">
         <v>80759</v>
       </c>
-      <c r="F59" s="1">
-        <v>0.47894675925925928</v>
+      <c r="F59" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G59">
         <v>115</v>
@@ -3633,10 +3947,28 @@
         <f t="shared" si="0"/>
         <v>18.375723938223938</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="2"/>
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G64" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>2014年1月</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>02.48</t>
+  </si>
+  <si>
+    <t>11:29:00 价格</t>
+  </si>
+  <si>
+    <t>《-11：29：18</t>
   </si>
 </sst>
 </file>
@@ -1335,11 +1341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="203768152"/>
-        <c:axId val="204334400"/>
+        <c:axId val="210720088"/>
+        <c:axId val="210726616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203768152"/>
+        <c:axId val="210720088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204334400"/>
+        <c:crossAx val="210726616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1390,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204334400"/>
+        <c:axId val="210726616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203768152"/>
+        <c:crossAx val="210720088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2400,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,6 +2419,7 @@
     <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2831,7 +2838,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2857,7 +2864,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2898,11 @@
       <c r="L31" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2929,8 +2939,12 @@
         <f>E32-I32</f>
         <v>75332</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="4">
+        <f>E32-M32</f>
+        <v>75332</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2967,8 +2981,12 @@
         <f t="shared" ref="L33:L59" si="2">E33-I33</f>
         <v>83571</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="4">
+        <f t="shared" ref="N33:N59" si="3">E33-M33</f>
+        <v>83571</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -3005,8 +3023,12 @@
         <f t="shared" si="2"/>
         <v>91898</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="4">
+        <f t="shared" si="3"/>
+        <v>91898</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3043,8 +3065,12 @@
         <f t="shared" si="2"/>
         <v>501</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="4">
+        <f t="shared" si="3"/>
+        <v>84101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3081,8 +3107,12 @@
         <f t="shared" si="2"/>
         <v>903</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="4">
+        <f t="shared" si="3"/>
+        <v>80803</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -3119,8 +3149,12 @@
         <f t="shared" si="2"/>
         <v>523</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="4">
+        <f t="shared" si="3"/>
+        <v>77823</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3157,8 +3191,12 @@
         <f t="shared" si="2"/>
         <v>1065</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="4">
+        <f t="shared" si="3"/>
+        <v>76465</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -3195,8 +3233,12 @@
         <f t="shared" si="2"/>
         <v>839</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="4">
+        <f t="shared" si="3"/>
+        <v>74939</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3233,8 +3275,12 @@
         <f t="shared" si="2"/>
         <v>892</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N40" s="4">
+        <f t="shared" si="3"/>
+        <v>73492</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3271,8 +3317,12 @@
         <f t="shared" si="2"/>
         <v>83723</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N41" s="4">
+        <f t="shared" si="3"/>
+        <v>83723</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3309,8 +3359,12 @@
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N42" s="4">
+        <f t="shared" si="3"/>
+        <v>75717</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3347,8 +3401,12 @@
         <f t="shared" si="2"/>
         <v>1193</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N43" s="4">
+        <f t="shared" si="3"/>
+        <v>76093</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3385,8 +3443,15 @@
         <f t="shared" si="2"/>
         <v>901</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>72600</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3423,8 +3488,15 @@
         <f t="shared" si="2"/>
         <v>757</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>72600</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -3461,8 +3533,15 @@
         <f t="shared" si="2"/>
         <v>1272</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>72900</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="3"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -3499,8 +3578,15 @@
         <f t="shared" si="2"/>
         <v>1513</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>73100</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="3"/>
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3623,15 @@
         <f>E48-I48</f>
         <v>1903</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>73200</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="3"/>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -3575,8 +3668,15 @@
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>73200</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -3613,8 +3713,15 @@
         <f t="shared" si="2"/>
         <v>2080</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>73300</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -3651,8 +3758,15 @@
         <f t="shared" si="2"/>
         <v>1185</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>72900</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="3"/>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -3689,8 +3803,15 @@
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>72900</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="3"/>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -3727,8 +3848,15 @@
         <f t="shared" si="2"/>
         <v>1475</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>72900</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -3765,8 +3893,18 @@
         <f t="shared" si="2"/>
         <v>1033</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>72900</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="P54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>63</v>
       </c>
@@ -3803,8 +3941,15 @@
         <f t="shared" si="2"/>
         <v>1087</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>72900</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="3"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -3841,8 +3986,15 @@
         <f t="shared" si="2"/>
         <v>516</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="4">
+        <v>74000</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4031,15 @@
         <f t="shared" si="2"/>
         <v>2918</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>76000</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="3"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -3917,8 +4076,15 @@
         <f t="shared" si="2"/>
         <v>1130</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="4">
+        <v>74600</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -3955,14 +4121,21 @@
         <f t="shared" si="2"/>
         <v>5559</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>79900</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="3"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G64" s="9"/>
     </row>
   </sheetData>

--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="25808"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/git/weka_tutorial/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>2014年1月</t>
   </si>
@@ -294,6 +304,12 @@
   </si>
   <si>
     <t>《-11：29：18</t>
+  </si>
+  <si>
+    <t>29:53</t>
+  </si>
+  <si>
+    <t>2015_5</t>
   </si>
 </sst>
 </file>
@@ -498,52 +514,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8100</c:v>
+                  <c:v>8100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8200</c:v>
+                  <c:v>8200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8300</c:v>
+                  <c:v>8300.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7447</c:v>
+                  <c:v>7447.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7990</c:v>
+                  <c:v>7990.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7653</c:v>
+                  <c:v>7653.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7406</c:v>
+                  <c:v>7406.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8288</c:v>
+                  <c:v>8288.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,52 +644,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73500</c:v>
+                  <c:v>73500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73200</c:v>
+                  <c:v>73200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74400</c:v>
+                  <c:v>74400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74600</c:v>
+                  <c:v>74600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73600</c:v>
+                  <c:v>73600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73500</c:v>
+                  <c:v>73500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73600</c:v>
+                  <c:v>73600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76500</c:v>
+                  <c:v>76500.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74600</c:v>
+                  <c:v>74600.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80600</c:v>
+                  <c:v>80600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,52 +774,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73501</c:v>
+                  <c:v>73501.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73357</c:v>
+                  <c:v>73357.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73872</c:v>
+                  <c:v>73872.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74113</c:v>
+                  <c:v>74113.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74503</c:v>
+                  <c:v>74503.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73896</c:v>
+                  <c:v>73896.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74680</c:v>
+                  <c:v>74680.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73785</c:v>
+                  <c:v>73785.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73875</c:v>
+                  <c:v>73875.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74075</c:v>
+                  <c:v>74075.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73633</c:v>
+                  <c:v>73633.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73687</c:v>
+                  <c:v>73687.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74216</c:v>
+                  <c:v>74216.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76618</c:v>
+                  <c:v>76618.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74830</c:v>
+                  <c:v>74830.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80759</c:v>
+                  <c:v>80759.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,13 +940,13 @@
                   <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46027777777777779</c:v>
+                  <c:v>0.460277777777778</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47240740740740739</c:v>
+                  <c:v>0.472407407407407</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>29.41</c:v>
@@ -1018,52 +1034,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,52 +1164,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41946</c:v>
+                  <c:v>41946.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45758</c:v>
+                  <c:v>45758.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61853</c:v>
+                  <c:v>61853.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94241</c:v>
+                  <c:v>94241.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114121</c:v>
+                  <c:v>114121.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135677</c:v>
+                  <c:v>135677.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136098</c:v>
+                  <c:v>136098.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121550</c:v>
+                  <c:v>121550.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122219</c:v>
+                  <c:v>122219.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105532</c:v>
+                  <c:v>105532.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95595</c:v>
+                  <c:v>95595.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96972</c:v>
+                  <c:v>96972.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98203</c:v>
+                  <c:v>98203.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103224</c:v>
+                  <c:v>103224.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132690</c:v>
+                  <c:v>132690.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152298</c:v>
+                  <c:v>152298.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,52 +1296,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75200</c:v>
+                  <c:v>75200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,11 +1357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="210720088"/>
-        <c:axId val="210726616"/>
+        <c:axId val="2139095424"/>
+        <c:axId val="2139139712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210720088"/>
+        <c:axId val="2139095424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210726616"/>
+        <c:crossAx val="2139139712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210726616"/>
+        <c:axId val="2139139712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210720088"/>
+        <c:crossAx val="2139095424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,21 +2424,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2490,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2500,7 +2516,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2542,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2594,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +2620,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2630,7 +2646,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2698,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2708,7 +2724,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2734,7 +2750,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2786,7 +2802,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2812,7 +2828,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2838,7 +2854,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2902,7 +2918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2944,7 +2960,7 @@
         <v>75332</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2970,23 +2986,23 @@
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" ref="J33:J59" si="0">H33/C33</f>
+        <f t="shared" ref="J33:J60" si="0">H33/C33</f>
         <v>2.7389999999999999</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" ref="K33:K59" si="1">D33-I33</f>
+        <f t="shared" ref="K33:K60" si="1">D33-I33</f>
         <v>83300</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" ref="L33:L59" si="2">E33-I33</f>
+        <f t="shared" ref="L33:L60" si="2">E33-I33</f>
         <v>83571</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" ref="N33:N59" si="3">E33-M33</f>
+        <f t="shared" ref="N33:N60" si="3">E33-M33</f>
         <v>83571</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -3028,7 +3044,7 @@
         <v>91898</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3070,7 +3086,7 @@
         <v>84101</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3112,7 +3128,7 @@
         <v>80803</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -3154,7 +3170,7 @@
         <v>77823</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3196,7 +3212,7 @@
         <v>76465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -3238,7 +3254,7 @@
         <v>74939</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3280,7 +3296,7 @@
         <v>73492</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3322,7 +3338,7 @@
         <v>83723</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3364,7 +3380,7 @@
         <v>75717</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>76093</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3451,7 +3467,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -3541,7 +3557,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3602,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -3631,7 +3647,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -3676,7 +3692,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -3721,7 +3737,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -3766,7 +3782,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -3811,7 +3827,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -3856,7 +3872,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -3904,7 +3920,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>63</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -3994,7 +4010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -4039,7 +4055,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -4084,7 +4100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -4129,13 +4145,58 @@
         <v>859</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="4">
+        <v>7482</v>
+      </c>
+      <c r="D60" s="4">
+        <v>79000</v>
+      </c>
+      <c r="E60" s="4">
+        <v>79099</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="4">
+        <v>20</v>
+      </c>
+      <c r="H60" s="4">
+        <v>156007</v>
+      </c>
+      <c r="I60" s="4">
+        <v>75200</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="0"/>
+        <v>20.850975674953222</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="2"/>
+        <v>3899</v>
+      </c>
+      <c r="M60" s="4">
+        <v>78300</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="3"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G64" s="9"/>
     </row>
   </sheetData>
@@ -4151,7 +4212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="25808"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/git/weka_tutorial/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>2014年1月</t>
   </si>
@@ -310,6 +305,9 @@
   </si>
   <si>
     <t>2015_5</t>
+  </si>
+  <si>
+    <t>平均成交价-最后1分钟价格</t>
   </si>
 </sst>
 </file>
@@ -357,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -368,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,52 +513,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8100.0</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8200.0</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8300.0</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7447.0</c:v>
+                  <c:v>7447</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7990.0</c:v>
+                  <c:v>7990</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7653.0</c:v>
+                  <c:v>7653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7406.0</c:v>
+                  <c:v>7406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8288.0</c:v>
+                  <c:v>8288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -644,52 +643,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73500.0</c:v>
+                  <c:v>73500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73200.0</c:v>
+                  <c:v>73200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74400.0</c:v>
+                  <c:v>74400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74600.0</c:v>
+                  <c:v>74600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73600.0</c:v>
+                  <c:v>73600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73500.0</c:v>
+                  <c:v>73500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73600.0</c:v>
+                  <c:v>73600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76500.0</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74600.0</c:v>
+                  <c:v>74600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80600.0</c:v>
+                  <c:v>80600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,52 +773,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73501.0</c:v>
+                  <c:v>73501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73357.0</c:v>
+                  <c:v>73357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73872.0</c:v>
+                  <c:v>73872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74113.0</c:v>
+                  <c:v>74113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74503.0</c:v>
+                  <c:v>74503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73896.0</c:v>
+                  <c:v>73896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74680.0</c:v>
+                  <c:v>74680</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73785.0</c:v>
+                  <c:v>73785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73875.0</c:v>
+                  <c:v>73875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74075.0</c:v>
+                  <c:v>74075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73633.0</c:v>
+                  <c:v>73633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73687.0</c:v>
+                  <c:v>73687</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74216.0</c:v>
+                  <c:v>74216</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76618.0</c:v>
+                  <c:v>76618</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74830.0</c:v>
+                  <c:v>74830</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80759.0</c:v>
+                  <c:v>80759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,13 +939,13 @@
                   <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.460277777777778</c:v>
+                  <c:v>0.46027777777777779</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.472407407407407</c:v>
+                  <c:v>0.47240740740740739</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>29.41</c:v>
@@ -1034,52 +1033,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,52 +1163,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45758.0</c:v>
+                  <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61853.0</c:v>
+                  <c:v>61853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94241.0</c:v>
+                  <c:v>94241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114121.0</c:v>
+                  <c:v>114121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135677.0</c:v>
+                  <c:v>135677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136098.0</c:v>
+                  <c:v>136098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121550.0</c:v>
+                  <c:v>121550</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122219.0</c:v>
+                  <c:v>122219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105532.0</c:v>
+                  <c:v>105532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95595.0</c:v>
+                  <c:v>95595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96972.0</c:v>
+                  <c:v>96972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98203.0</c:v>
+                  <c:v>98203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103224.0</c:v>
+                  <c:v>103224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132690.0</c:v>
+                  <c:v>132690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152298.0</c:v>
+                  <c:v>152298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,52 +1295,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75200.0</c:v>
+                  <c:v>75200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,11 +1356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2139095424"/>
-        <c:axId val="2139139712"/>
+        <c:axId val="211120368"/>
+        <c:axId val="211120752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139095424"/>
+        <c:axId val="211120368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139139712"/>
+        <c:crossAx val="211120752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139139712"/>
+        <c:axId val="211120752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139095424"/>
+        <c:crossAx val="211120368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2424,21 +2423,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2917,8 +2918,11 @@
       <c r="M31" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>75332</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>83571</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>91898</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>84101</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>80803</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>77823</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>76465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>74939</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>73492</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>83723</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>75717</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3422,7 +3426,7 @@
         <v>76093</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>63</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -4145,58 +4149,58 @@
         <v>859</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
+    <row r="60" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>7482</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>79000</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>79099</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>20</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>156007</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>75200</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
         <f t="shared" si="0"/>
         <v>20.850975674953222</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="3">
         <f t="shared" si="1"/>
         <v>3800</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="3">
         <f t="shared" si="2"/>
         <v>3899</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="3">
         <v>78300</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <f t="shared" si="3"/>
         <v>799</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G64" s="9"/>
     </row>
   </sheetData>
@@ -4212,7 +4216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/git/weka_tutorial/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -226,15 +234,6 @@
     <t>2015_4</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>投标人数/投放数量</t>
-  </si>
-  <si>
-    <t>最低成交价-警示价格</t>
-  </si>
-  <si>
     <t>平均成交价-警示价格</t>
   </si>
   <si>
@@ -295,9 +294,6 @@
     <t>02.48</t>
   </si>
   <si>
-    <t>11:29:00 价格</t>
-  </si>
-  <si>
     <t>《-11：29：18</t>
   </si>
   <si>
@@ -307,7 +303,20 @@
     <t>2015_5</t>
   </si>
   <si>
-    <t>平均成交价-最后1分钟价格</t>
+    <t>29:50</t>
+  </si>
+  <si>
+    <t>2015_6</t>
+  </si>
+  <si>
+    <t>平均成交价-  预计出价时间价格</t>
+  </si>
+  <si>
+    <t>11:29:00 价格
+改成预计出价时间11:29:42的价格</t>
+  </si>
+  <si>
+    <t>第n人</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -367,6 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,52 +526,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8100</c:v>
+                  <c:v>8100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8200</c:v>
+                  <c:v>8200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8300</c:v>
+                  <c:v>8300.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7400</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7447</c:v>
+                  <c:v>7447.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7990</c:v>
+                  <c:v>7990.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7653</c:v>
+                  <c:v>7653.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7406</c:v>
+                  <c:v>7406.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8288</c:v>
+                  <c:v>8288.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,52 +656,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73500</c:v>
+                  <c:v>73500.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73200</c:v>
+                  <c:v>73200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74400</c:v>
+                  <c:v>74400.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74600</c:v>
+                  <c:v>74600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73600</c:v>
+                  <c:v>73600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73800</c:v>
+                  <c:v>73800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73500</c:v>
+                  <c:v>73500.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73600</c:v>
+                  <c:v>73600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74000</c:v>
+                  <c:v>74000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76500</c:v>
+                  <c:v>76500.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74600</c:v>
+                  <c:v>74600.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80600</c:v>
+                  <c:v>80600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,52 +786,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73501</c:v>
+                  <c:v>73501.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73357</c:v>
+                  <c:v>73357.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73872</c:v>
+                  <c:v>73872.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74113</c:v>
+                  <c:v>74113.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74503</c:v>
+                  <c:v>74503.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73896</c:v>
+                  <c:v>73896.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74680</c:v>
+                  <c:v>74680.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73785</c:v>
+                  <c:v>73785.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73875</c:v>
+                  <c:v>73875.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74075</c:v>
+                  <c:v>74075.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73633</c:v>
+                  <c:v>73633.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73687</c:v>
+                  <c:v>73687.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74216</c:v>
+                  <c:v>74216.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76618</c:v>
+                  <c:v>76618.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74830</c:v>
+                  <c:v>74830.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80759</c:v>
+                  <c:v>80759.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,13 +952,13 @@
                   <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46027777777777779</c:v>
+                  <c:v>0.460277777777778</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47240740740740739</c:v>
+                  <c:v>0.472407407407407</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>29.41</c:v>
@@ -1033,52 +1046,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,52 +1176,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41946</c:v>
+                  <c:v>41946.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45758</c:v>
+                  <c:v>45758.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61853</c:v>
+                  <c:v>61853.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94241</c:v>
+                  <c:v>94241.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114121</c:v>
+                  <c:v>114121.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135677</c:v>
+                  <c:v>135677.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136098</c:v>
+                  <c:v>136098.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121550</c:v>
+                  <c:v>121550.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122219</c:v>
+                  <c:v>122219.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105532</c:v>
+                  <c:v>105532.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95595</c:v>
+                  <c:v>95595.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96972</c:v>
+                  <c:v>96972.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98203</c:v>
+                  <c:v>98203.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103224</c:v>
+                  <c:v>103224.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132690</c:v>
+                  <c:v>132690.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152298</c:v>
+                  <c:v>152298.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,52 +1308,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72600</c:v>
+                  <c:v>72600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73700</c:v>
+                  <c:v>73700.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75200</c:v>
+                  <c:v>75200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,11 +1369,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="211120368"/>
-        <c:axId val="211120752"/>
+        <c:axId val="-2130031696"/>
+        <c:axId val="-2130028560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211120368"/>
+        <c:axId val="-2130031696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211120752"/>
+        <c:crossAx val="-2130028560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1411,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211120752"/>
+        <c:axId val="-2130028560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211120368"/>
+        <c:crossAx val="-2130031696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,15 +2117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426026</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>53685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2421,25 +2434,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2554,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +2580,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2632,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +2710,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2803,7 +2814,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2898,7 +2909,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>38</v>
@@ -2907,22 +2918,16 @@
         <v>39</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>75332</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4">
         <v>65</v>
@@ -2948,23 +2953,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="4">
-        <f>H32/C32</f>
-        <v>2.3174444444444444</v>
-      </c>
-      <c r="K32" s="4">
-        <f>D32-I32</f>
-        <v>75000</v>
-      </c>
-      <c r="L32" s="4">
         <f>E32-I32</f>
         <v>75332</v>
       </c>
-      <c r="N32" s="4">
-        <f>E32-M32</f>
-        <v>75332</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <f>D32-K32</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2978,7 +2975,7 @@
         <v>83571</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G33" s="4">
         <v>113</v>
@@ -2990,23 +2987,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" ref="J33:J60" si="0">H33/C33</f>
-        <v>2.7389999999999999</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" ref="K33:K60" si="1">D33-I33</f>
+        <f>E33-I33</f>
+        <v>83571</v>
+      </c>
+      <c r="L33" s="4">
+        <f>D33-K33</f>
         <v>83300</v>
       </c>
-      <c r="L33" s="4">
-        <f t="shared" ref="L33:L60" si="2">E33-I33</f>
-        <v>83571</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" ref="N33:N60" si="3">E33-M33</f>
-        <v>83571</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -3020,7 +3009,7 @@
         <v>91898</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3032,23 +3021,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="0"/>
-        <v>2.621</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="1"/>
+        <f>E34-I34</f>
+        <v>91898</v>
+      </c>
+      <c r="L34" s="4">
+        <f>D34-K34</f>
         <v>90800</v>
       </c>
-      <c r="L34" s="4">
-        <f t="shared" si="2"/>
-        <v>91898</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="3"/>
-        <v>91898</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3043,7 @@
         <v>84101</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3073,24 +3054,16 @@
       <c r="I35">
         <v>83600</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>2.3794545454545455</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>300</v>
+      <c r="J35" s="4">
+        <f>E35-I35</f>
+        <v>501</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="3"/>
-        <v>84101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D35-K35</f>
+        <v>83900</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3104,7 +3077,7 @@
         <v>80803</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3115,24 +3088,16 @@
       <c r="I36">
         <v>79900</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>2.4693333333333332</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>800</v>
+      <c r="J36" s="4">
+        <f>E36-I36</f>
+        <v>903</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="2"/>
-        <v>903</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="3"/>
-        <v>80803</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D36-K36</f>
+        <v>80700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -3146,7 +3111,7 @@
         <v>77823</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3157,24 +3122,16 @@
       <c r="I37">
         <v>77300</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>2.3868888888888891</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>300</v>
+      <c r="J37" s="4">
+        <f>E37-I37</f>
+        <v>523</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="2"/>
-        <v>523</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="3"/>
-        <v>77823</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D37-K37</f>
+        <v>77600</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3188,7 +3145,7 @@
         <v>76465</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38">
         <v>933</v>
@@ -3199,24 +3156,16 @@
       <c r="I38">
         <v>75400</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>2.4234444444444443</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>900</v>
+      <c r="J38" s="4">
+        <f>E38-I38</f>
+        <v>1065</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="2"/>
-        <v>1065</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="3"/>
-        <v>76465</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D38-K38</f>
+        <v>76300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -3230,7 +3179,7 @@
         <v>74939</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -3241,24 +3190,16 @@
       <c r="I39">
         <v>74100</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>2.5166666666666666</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>600</v>
+      <c r="J39" s="4">
+        <f>E39-I39</f>
+        <v>839</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="2"/>
-        <v>839</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="3"/>
-        <v>74939</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D39-K39</f>
+        <v>74700</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3272,7 +3213,7 @@
         <v>73492</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G40">
         <v>96</v>
@@ -3283,24 +3224,16 @@
       <c r="I40">
         <v>72600</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>3.9060000000000001</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>800</v>
+      <c r="J40" s="4">
+        <f>E40-I40</f>
+        <v>892</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="2"/>
-        <v>892</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="3"/>
-        <v>73492</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>D40-K40</f>
+        <v>73400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3314,7 +3247,7 @@
         <v>83723</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G41" s="4">
         <v>309</v>
@@ -3326,23 +3259,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8887</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="1"/>
+        <f>E41-I41</f>
+        <v>83723</v>
+      </c>
+      <c r="L41" s="4">
+        <f>D41-K41</f>
         <v>82300</v>
       </c>
-      <c r="L41" s="4">
-        <f t="shared" si="2"/>
-        <v>83723</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="3"/>
-        <v>83723</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3356,7 +3281,7 @@
         <v>75717</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3367,24 +3292,16 @@
       <c r="I42">
         <v>74900</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>4.4964705882352938</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>600</v>
+      <c r="J42" s="4">
+        <f>E42-I42</f>
+        <v>817</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="2"/>
-        <v>817</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="3"/>
-        <v>75717</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D42-K42</f>
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3398,7 +3315,7 @@
         <v>76093</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G43">
         <v>13</v>
@@ -3409,24 +3326,16 @@
       <c r="I43">
         <v>74900</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>4.6617647058823533</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>1100</v>
+      <c r="J43" s="4">
+        <f>E43-I43</f>
+        <v>1193</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="2"/>
-        <v>1193</v>
-      </c>
-      <c r="N43" s="4">
-        <f t="shared" si="3"/>
-        <v>76093</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D43-K43</f>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3349,7 @@
         <v>73501</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>158</v>
@@ -3451,27 +3360,19 @@
       <c r="I44">
         <v>72600</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>5.1785185185185183</v>
+      <c r="J44" s="4">
+        <f>E44-I44</f>
+        <v>901</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <v>72600</v>
+      </c>
+      <c r="L44" s="4">
+        <f>D44-K44</f>
         <v>900</v>
       </c>
-      <c r="L44" s="4">
-        <f t="shared" si="2"/>
-        <v>901</v>
-      </c>
-      <c r="M44">
-        <v>72600</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="3"/>
-        <v>901</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3386,7 @@
         <v>73357</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G45">
         <v>347</v>
@@ -3496,27 +3397,19 @@
       <c r="I45">
         <v>72600</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>6.1835135135135131</v>
+      <c r="J45" s="4">
+        <f>E45-I45</f>
+        <v>757</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <v>72600</v>
+      </c>
+      <c r="L45" s="4">
+        <f>D45-K45</f>
         <v>600</v>
       </c>
-      <c r="L45" s="4">
-        <f t="shared" si="2"/>
-        <v>757</v>
-      </c>
-      <c r="M45">
-        <v>72600</v>
-      </c>
-      <c r="N45" s="4">
-        <f t="shared" si="3"/>
-        <v>757</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -3530,7 +3423,7 @@
         <v>73872</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G46">
         <v>259</v>
@@ -3541,27 +3434,19 @@
       <c r="I46">
         <v>72600</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>8.3585135135135129</v>
+      <c r="J46" s="4">
+        <f>E46-I46</f>
+        <v>1272</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>72900</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="2"/>
-        <v>1272</v>
-      </c>
-      <c r="M46">
-        <v>72900</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="3"/>
-        <v>972</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D46-K46</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -3575,7 +3460,7 @@
         <v>74113</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <v>44</v>
@@ -3586,27 +3471,19 @@
       <c r="I47">
         <v>72600</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>11.49280487804878</v>
+      <c r="J47" s="4">
+        <f>E47-I47</f>
+        <v>1513</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>73100</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="2"/>
-        <v>1513</v>
-      </c>
-      <c r="M47">
-        <v>73100</v>
-      </c>
-      <c r="N47" s="4">
-        <f t="shared" si="3"/>
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <f>D47-K47</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -3620,7 +3497,7 @@
         <v>74503</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>219</v>
@@ -3631,27 +3508,19 @@
       <c r="I48">
         <v>72600</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>15.421756756756757</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>1800</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="J48" s="4">
         <f>E48-I48</f>
         <v>1903</v>
       </c>
-      <c r="M48">
+      <c r="K48">
         <v>73200</v>
       </c>
-      <c r="N48" s="4">
-        <f t="shared" si="3"/>
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L48" s="4">
+        <f>D48-K48</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -3665,7 +3534,7 @@
         <v>73896</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G49">
         <v>238</v>
@@ -3676,27 +3545,19 @@
       <c r="I49">
         <v>72600</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>18.33472972972973</v>
+      <c r="J49" s="4">
+        <f>E49-I49</f>
+        <v>1296</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>73200</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="2"/>
-        <v>1296</v>
-      </c>
-      <c r="M49">
-        <v>73200</v>
-      </c>
-      <c r="N49" s="4">
-        <f t="shared" si="3"/>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D49-K49</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -3710,7 +3571,7 @@
         <v>74680</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>23</v>
@@ -3721,27 +3582,19 @@
       <c r="I50">
         <v>72600</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>18.391621621621621</v>
+      <c r="J50" s="4">
+        <f>E50-I50</f>
+        <v>2080</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>73300</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="M50">
-        <v>73300</v>
-      </c>
-      <c r="N50" s="4">
-        <f t="shared" si="3"/>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D50-K50</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -3755,7 +3608,7 @@
         <v>73785</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G51">
         <v>53</v>
@@ -3766,27 +3619,19 @@
       <c r="I51">
         <v>72600</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>16.425675675675677</v>
+      <c r="J51" s="4">
+        <f>E51-I51</f>
+        <v>1185</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>72900</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="2"/>
-        <v>1185</v>
-      </c>
-      <c r="M51">
-        <v>72900</v>
-      </c>
-      <c r="N51" s="4">
-        <f t="shared" si="3"/>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D51-K51</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -3800,7 +3645,7 @@
         <v>73875</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G52">
         <v>183</v>
@@ -3811,27 +3656,19 @@
       <c r="I52">
         <v>72600</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>14.725180722891567</v>
+      <c r="J52" s="4">
+        <f>E52-I52</f>
+        <v>1275</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>72900</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="2"/>
-        <v>1275</v>
-      </c>
-      <c r="M52">
-        <v>72900</v>
-      </c>
-      <c r="N52" s="4">
-        <f t="shared" si="3"/>
-        <v>975</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D52-K52</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -3845,7 +3682,7 @@
         <v>74075</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -3856,27 +3693,19 @@
       <c r="I53">
         <v>72600</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>14.26108108108108</v>
+      <c r="J53" s="4">
+        <f>E53-I53</f>
+        <v>1475</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>72900</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="2"/>
-        <v>1475</v>
-      </c>
-      <c r="M53">
-        <v>72900</v>
-      </c>
-      <c r="N53" s="4">
-        <f t="shared" si="3"/>
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D53-K53</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -3890,7 +3719,7 @@
         <v>73633</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G54">
         <v>77</v>
@@ -3901,30 +3730,22 @@
       <c r="I54">
         <v>72600</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>12.918243243243243</v>
+      <c r="J54" s="4">
+        <f>E54-I54</f>
+        <v>1033</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <v>72900</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="2"/>
-        <v>1033</v>
-      </c>
-      <c r="M54">
-        <v>72900</v>
-      </c>
-      <c r="N54" s="4">
-        <f t="shared" si="3"/>
-        <v>733</v>
-      </c>
-      <c r="P54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D54-K54</f>
+        <v>600</v>
+      </c>
+      <c r="N54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>63</v>
       </c>
@@ -3938,7 +3759,7 @@
         <v>73687</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G55">
         <v>628</v>
@@ -3949,27 +3770,19 @@
       <c r="I55">
         <v>72600</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>13.021619444071439</v>
+      <c r="J55" s="4">
+        <f>E55-I55</f>
+        <v>1087</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>72900</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="2"/>
-        <v>1087</v>
-      </c>
-      <c r="M55">
-        <v>72900</v>
-      </c>
-      <c r="N55" s="4">
-        <f t="shared" si="3"/>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>D55-K55</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -3983,7 +3796,7 @@
         <v>74216</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
@@ -3995,26 +3808,18 @@
         <v>73700</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="0"/>
-        <v>12.290738423028786</v>
+        <f>E56-I56</f>
+        <v>516</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <v>74000</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="2"/>
-        <v>516</v>
-      </c>
-      <c r="M56" s="4">
-        <v>74000</v>
-      </c>
-      <c r="N56" s="4">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D56-K56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -4028,7 +3833,7 @@
         <v>76618</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G57">
         <v>73</v>
@@ -4039,27 +3844,19 @@
       <c r="I57">
         <v>73700</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>13.488043904351235</v>
+      <c r="J57" s="4">
+        <f>E57-I57</f>
+        <v>2918</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>76000</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="2"/>
-        <v>2918</v>
-      </c>
-      <c r="M57">
-        <v>76000</v>
-      </c>
-      <c r="N57" s="4">
-        <f t="shared" si="3"/>
-        <v>618</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>D57-K57</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -4073,7 +3870,7 @@
         <v>74830</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
@@ -4085,26 +3882,18 @@
         <v>73700</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="0"/>
-        <v>17.916554145287606</v>
+        <f>E58-I58</f>
+        <v>1130</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <v>74600</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="2"/>
-        <v>1130</v>
-      </c>
-      <c r="M58" s="4">
-        <v>74600</v>
-      </c>
-      <c r="N58" s="4">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+        <f>D58-K58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -4118,7 +3907,7 @@
         <v>80759</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G59">
         <v>115</v>
@@ -4129,29 +3918,21 @@
       <c r="I59">
         <v>75200</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>18.375723938223938</v>
+      <c r="J59" s="4">
+        <f>E59-I59</f>
+        <v>5559</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>79900</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="2"/>
-        <v>5559</v>
-      </c>
-      <c r="M59">
-        <v>79900</v>
-      </c>
-      <c r="N59" s="4">
-        <f t="shared" si="3"/>
-        <v>859</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>D59-K59</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C60" s="3">
         <v>7482</v>
@@ -4163,7 +3944,7 @@
         <v>79099</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G60" s="3">
         <v>20</v>
@@ -4175,32 +3956,61 @@
         <v>75200</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="0"/>
-        <v>20.850975674953222</v>
+        <f>E60-I60</f>
+        <v>3899</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="1"/>
-        <v>3800</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="2"/>
-        <v>3899</v>
-      </c>
-      <c r="M60" s="3">
         <v>78300</v>
       </c>
-      <c r="N60" s="3">
-        <f t="shared" si="3"/>
-        <v>799</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L60" s="4">
+        <f>D60-K60</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="3">
+        <v>7441</v>
+      </c>
+      <c r="D61" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>80020</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>172205</v>
+      </c>
+      <c r="I61" s="3">
+        <v>75200</v>
+      </c>
+      <c r="J61" s="3">
+        <f>E61-I61</f>
+        <v>4820</v>
+      </c>
+      <c r="K61" s="3">
+        <v>78300</v>
+      </c>
+      <c r="L61" s="4">
+        <f>D61-K61</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="G64" s="9"/>
     </row>
   </sheetData>
@@ -4216,7 +4026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/chepai.xlsx
+++ b/data/chepai.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26915"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry/git/weka_tutorial/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>2014年1月</t>
   </si>
@@ -234,9 +226,6 @@
     <t>2015_4</t>
   </si>
   <si>
-    <t>平均成交价-警示价格</t>
-  </si>
-  <si>
     <t>29.40</t>
   </si>
   <si>
@@ -294,9 +283,6 @@
     <t>02.48</t>
   </si>
   <si>
-    <t>《-11：29：18</t>
-  </si>
-  <si>
     <t>29:53</t>
   </si>
   <si>
@@ -307,9 +293,6 @@
   </si>
   <si>
     <t>2015_6</t>
-  </si>
-  <si>
-    <t>平均成交价-  预计出价时间价格</t>
   </si>
   <si>
     <t>11:29:00 价格
@@ -317,6 +300,156 @@
   </si>
   <si>
     <t>第n人</t>
+  </si>
+  <si>
+    <t>2015_7</t>
+  </si>
+  <si>
+    <t>2015_8</t>
+  </si>
+  <si>
+    <t>2015_9</t>
+  </si>
+  <si>
+    <t>2015_10</t>
+  </si>
+  <si>
+    <t>2015_11</t>
+  </si>
+  <si>
+    <t>2015_12</t>
+  </si>
+  <si>
+    <t>2016_01</t>
+  </si>
+  <si>
+    <t>2016_02</t>
+  </si>
+  <si>
+    <t>2016_03</t>
+  </si>
+  <si>
+    <t>2016_04</t>
+  </si>
+  <si>
+    <t>​7531</t>
+  </si>
+  <si>
+    <t>​83100</t>
+  </si>
+  <si>
+    <t>​83171</t>
+  </si>
+  <si>
+    <t>​166302</t>
+  </si>
+  <si>
+    <t>​7454</t>
+  </si>
+  <si>
+    <t>​82600</t>
+  </si>
+  <si>
+    <t>​82642</t>
+  </si>
+  <si>
+    <t>​166939</t>
+  </si>
+  <si>
+    <t>​8727</t>
+  </si>
+  <si>
+    <t>​82100</t>
+  </si>
+  <si>
+    <t>​82172</t>
+  </si>
+  <si>
+    <t>​7763</t>
+  </si>
+  <si>
+    <t>​85300</t>
+  </si>
+  <si>
+    <t>​85424</t>
+  </si>
+  <si>
+    <t>​170995</t>
+  </si>
+  <si>
+    <t>​7514</t>
+  </si>
+  <si>
+    <t>​169159</t>
+  </si>
+  <si>
+    <t>​84600</t>
+  </si>
+  <si>
+    <t>​84703</t>
+  </si>
+  <si>
+    <t>​7698</t>
+  </si>
+  <si>
+    <t>​179133</t>
+  </si>
+  <si>
+    <t>​84500</t>
+  </si>
+  <si>
+    <t>​84572</t>
+  </si>
+  <si>
+    <t>​9409</t>
+  </si>
+  <si>
+    <t>​187533</t>
+  </si>
+  <si>
+    <t>​82200</t>
+  </si>
+  <si>
+    <t>​82352</t>
+  </si>
+  <si>
+    <t>​8360</t>
+  </si>
+  <si>
+    <t>​196470</t>
+  </si>
+  <si>
+    <t>​83200</t>
+  </si>
+  <si>
+    <t>​83244</t>
+  </si>
+  <si>
+    <t>​8310</t>
+  </si>
+  <si>
+    <t>​221109</t>
+  </si>
+  <si>
+    <t>​83148</t>
+  </si>
+  <si>
+    <t>​11829</t>
+  </si>
+  <si>
+    <t>​256897</t>
+  </si>
+  <si>
+    <t>29:58</t>
+  </si>
+  <si>
+    <t>29:46</t>
+  </si>
+  <si>
+    <t>29:57</t>
+  </si>
+  <si>
+    <t>29:59</t>
   </si>
 </sst>
 </file>
@@ -364,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -378,6 +511,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,52 +662,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8100.0</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8200.0</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8300.0</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7400.0</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7447.0</c:v>
+                  <c:v>7447</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7990.0</c:v>
+                  <c:v>7990</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7653.0</c:v>
+                  <c:v>7653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7406.0</c:v>
+                  <c:v>7406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8288.0</c:v>
+                  <c:v>8288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,52 +792,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73500.0</c:v>
+                  <c:v>73500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73200.0</c:v>
+                  <c:v>73200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74400.0</c:v>
+                  <c:v>74400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74600.0</c:v>
+                  <c:v>74600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73600.0</c:v>
+                  <c:v>73600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73800.0</c:v>
+                  <c:v>73800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73500.0</c:v>
+                  <c:v>73500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73600.0</c:v>
+                  <c:v>73600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74000.0</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76500.0</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74600.0</c:v>
+                  <c:v>74600</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80600.0</c:v>
+                  <c:v>80600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,52 +922,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>73501.0</c:v>
+                  <c:v>73501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73357.0</c:v>
+                  <c:v>73357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73872.0</c:v>
+                  <c:v>73872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74113.0</c:v>
+                  <c:v>74113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74503.0</c:v>
+                  <c:v>74503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73896.0</c:v>
+                  <c:v>73896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74680.0</c:v>
+                  <c:v>74680</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73785.0</c:v>
+                  <c:v>73785</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73875.0</c:v>
+                  <c:v>73875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74075.0</c:v>
+                  <c:v>74075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73633.0</c:v>
+                  <c:v>73633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73687.0</c:v>
+                  <c:v>73687</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74216.0</c:v>
+                  <c:v>74216</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76618.0</c:v>
+                  <c:v>76618</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74830.0</c:v>
+                  <c:v>74830</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80759.0</c:v>
+                  <c:v>80759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,13 +1088,13 @@
                   <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.460277777777778</c:v>
+                  <c:v>0.46027777777777779</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>29.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.472407407407407</c:v>
+                  <c:v>0.47240740740740739</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>29.41</c:v>
@@ -1046,52 +1182,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,52 +1312,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>41946.0</c:v>
+                  <c:v>41946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45758.0</c:v>
+                  <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61853.0</c:v>
+                  <c:v>61853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94241.0</c:v>
+                  <c:v>94241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114121.0</c:v>
+                  <c:v>114121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135677.0</c:v>
+                  <c:v>135677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136098.0</c:v>
+                  <c:v>136098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121550.0</c:v>
+                  <c:v>121550</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122219.0</c:v>
+                  <c:v>122219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105532.0</c:v>
+                  <c:v>105532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95595.0</c:v>
+                  <c:v>95595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96972.0</c:v>
+                  <c:v>96972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98203.0</c:v>
+                  <c:v>98203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103224.0</c:v>
+                  <c:v>103224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132690.0</c:v>
+                  <c:v>132690</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152298.0</c:v>
+                  <c:v>152298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,52 +1444,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72600.0</c:v>
+                  <c:v>72600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73700.0</c:v>
+                  <c:v>73700</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75200.0</c:v>
+                  <c:v>75200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2130031696"/>
-        <c:axId val="-2130028560"/>
+        <c:axId val="331242928"/>
+        <c:axId val="331243320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130031696"/>
+        <c:axId val="331242928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130028560"/>
+        <c:crossAx val="331243320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130028560"/>
+        <c:axId val="331243320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130031696"/>
+        <c:crossAx val="331242928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,12 +2253,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>92364</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>24099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>426026</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>53685</xdr:rowOff>
@@ -2434,23 +2570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +2611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2637,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2663,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2689,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +2715,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2741,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2767,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2793,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2819,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2710,7 +2845,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2736,7 +2871,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2762,7 +2897,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2923,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2814,7 +2949,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2840,7 +2975,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +3001,7 @@
         <v>73700</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2892,7 +3027,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2909,7 +3044,7 @@
         <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>38</v>
@@ -2917,17 +3052,12 @@
       <c r="I31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
@@ -2941,7 +3071,7 @@
         <v>75332</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="4">
         <v>65</v>
@@ -2952,16 +3082,8 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="4">
-        <f>E32-I32</f>
-        <v>75332</v>
-      </c>
-      <c r="L32" s="4">
-        <f>D32-K32</f>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -2975,7 +3097,7 @@
         <v>83571</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="4">
         <v>113</v>
@@ -2986,16 +3108,8 @@
       <c r="I33" s="4">
         <v>0</v>
       </c>
-      <c r="J33" s="4">
-        <f>E33-I33</f>
-        <v>83571</v>
-      </c>
-      <c r="L33" s="4">
-        <f>D33-K33</f>
-        <v>83300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -3009,7 +3123,7 @@
         <v>91898</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3020,16 +3134,8 @@
       <c r="I34" s="4">
         <v>0</v>
       </c>
-      <c r="J34" s="4">
-        <f>E34-I34</f>
-        <v>91898</v>
-      </c>
-      <c r="L34" s="4">
-        <f>D34-K34</f>
-        <v>90800</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -3043,7 +3149,7 @@
         <v>84101</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3054,16 +3160,9 @@
       <c r="I35">
         <v>83600</v>
       </c>
-      <c r="J35" s="4">
-        <f>E35-I35</f>
-        <v>501</v>
-      </c>
-      <c r="L35" s="4">
-        <f>D35-K35</f>
-        <v>83900</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -3077,7 +3176,7 @@
         <v>80803</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3088,16 +3187,9 @@
       <c r="I36">
         <v>79900</v>
       </c>
-      <c r="J36" s="4">
-        <f>E36-I36</f>
-        <v>903</v>
-      </c>
-      <c r="L36" s="4">
-        <f>D36-K36</f>
-        <v>80700</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -3111,7 +3203,7 @@
         <v>77823</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3122,16 +3214,9 @@
       <c r="I37">
         <v>77300</v>
       </c>
-      <c r="J37" s="4">
-        <f>E37-I37</f>
-        <v>523</v>
-      </c>
-      <c r="L37" s="4">
-        <f>D37-K37</f>
-        <v>77600</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -3145,7 +3230,7 @@
         <v>76465</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38">
         <v>933</v>
@@ -3156,16 +3241,9 @@
       <c r="I38">
         <v>75400</v>
       </c>
-      <c r="J38" s="4">
-        <f>E38-I38</f>
-        <v>1065</v>
-      </c>
-      <c r="L38" s="4">
-        <f>D38-K38</f>
-        <v>76300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -3179,7 +3257,7 @@
         <v>74939</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -3190,16 +3268,9 @@
       <c r="I39">
         <v>74100</v>
       </c>
-      <c r="J39" s="4">
-        <f>E39-I39</f>
-        <v>839</v>
-      </c>
-      <c r="L39" s="4">
-        <f>D39-K39</f>
-        <v>74700</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -3213,7 +3284,7 @@
         <v>73492</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40">
         <v>96</v>
@@ -3224,16 +3295,9 @@
       <c r="I40">
         <v>72600</v>
       </c>
-      <c r="J40" s="4">
-        <f>E40-I40</f>
-        <v>892</v>
-      </c>
-      <c r="L40" s="4">
-        <f>D40-K40</f>
-        <v>73400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3247,7 +3311,7 @@
         <v>83723</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="4">
         <v>309</v>
@@ -3258,16 +3322,8 @@
       <c r="I41" s="4">
         <v>0</v>
       </c>
-      <c r="J41" s="4">
-        <f>E41-I41</f>
-        <v>83723</v>
-      </c>
-      <c r="L41" s="4">
-        <f>D41-K41</f>
-        <v>82300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -3281,7 +3337,7 @@
         <v>75717</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3292,16 +3348,9 @@
       <c r="I42">
         <v>74900</v>
       </c>
-      <c r="J42" s="4">
-        <f>E42-I42</f>
-        <v>817</v>
-      </c>
-      <c r="L42" s="4">
-        <f>D42-K42</f>
-        <v>75500</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>51</v>
       </c>
@@ -3315,7 +3364,7 @@
         <v>76093</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43">
         <v>13</v>
@@ -3326,16 +3375,9 @@
       <c r="I43">
         <v>74900</v>
       </c>
-      <c r="J43" s="4">
-        <f>E43-I43</f>
-        <v>1193</v>
-      </c>
-      <c r="L43" s="4">
-        <f>D43-K43</f>
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -3349,7 +3391,7 @@
         <v>73501</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44">
         <v>158</v>
@@ -3360,19 +3402,9 @@
       <c r="I44">
         <v>72600</v>
       </c>
-      <c r="J44" s="4">
-        <f>E44-I44</f>
-        <v>901</v>
-      </c>
-      <c r="K44">
-        <v>72600</v>
-      </c>
-      <c r="L44" s="4">
-        <f>D44-K44</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -3386,7 +3418,7 @@
         <v>73357</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45">
         <v>347</v>
@@ -3397,19 +3429,9 @@
       <c r="I45">
         <v>72600</v>
       </c>
-      <c r="J45" s="4">
-        <f>E45-I45</f>
-        <v>757</v>
-      </c>
-      <c r="K45">
-        <v>72600</v>
-      </c>
-      <c r="L45" s="4">
-        <f>D45-K45</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -3423,7 +3445,7 @@
         <v>73872</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>259</v>
@@ -3434,19 +3456,9 @@
       <c r="I46">
         <v>72600</v>
       </c>
-      <c r="J46" s="4">
-        <f>E46-I46</f>
-        <v>1272</v>
-      </c>
-      <c r="K46">
-        <v>72900</v>
-      </c>
-      <c r="L46" s="4">
-        <f>D46-K46</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>55</v>
       </c>
@@ -3460,7 +3472,7 @@
         <v>74113</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47">
         <v>44</v>
@@ -3471,19 +3483,9 @@
       <c r="I47">
         <v>72600</v>
       </c>
-      <c r="J47" s="4">
-        <f>E47-I47</f>
-        <v>1513</v>
-      </c>
-      <c r="K47">
-        <v>73100</v>
-      </c>
-      <c r="L47" s="4">
-        <f>D47-K47</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>74503</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48">
         <v>219</v>
@@ -3508,19 +3510,9 @@
       <c r="I48">
         <v>72600</v>
       </c>
-      <c r="J48" s="4">
-        <f>E48-I48</f>
-        <v>1903</v>
-      </c>
-      <c r="K48">
-        <v>73200</v>
-      </c>
-      <c r="L48" s="4">
-        <f>D48-K48</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -3534,7 +3526,7 @@
         <v>73896</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49">
         <v>238</v>
@@ -3545,19 +3537,9 @@
       <c r="I49">
         <v>72600</v>
       </c>
-      <c r="J49" s="4">
-        <f>E49-I49</f>
-        <v>1296</v>
-      </c>
-      <c r="K49">
-        <v>73200</v>
-      </c>
-      <c r="L49" s="4">
-        <f>D49-K49</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -3571,7 +3553,7 @@
         <v>74680</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G50">
         <v>23</v>
@@ -3582,19 +3564,9 @@
       <c r="I50">
         <v>72600</v>
       </c>
-      <c r="J50" s="4">
-        <f>E50-I50</f>
-        <v>2080</v>
-      </c>
-      <c r="K50">
-        <v>73300</v>
-      </c>
-      <c r="L50" s="4">
-        <f>D50-K50</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -3608,7 +3580,7 @@
         <v>73785</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>53</v>
@@ -3619,19 +3591,9 @@
       <c r="I51">
         <v>72600</v>
       </c>
-      <c r="J51" s="4">
-        <f>E51-I51</f>
-        <v>1185</v>
-      </c>
-      <c r="K51">
-        <v>72900</v>
-      </c>
-      <c r="L51" s="4">
-        <f>D51-K51</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -3645,7 +3607,7 @@
         <v>73875</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52">
         <v>183</v>
@@ -3656,19 +3618,9 @@
       <c r="I52">
         <v>72600</v>
       </c>
-      <c r="J52" s="4">
-        <f>E52-I52</f>
-        <v>1275</v>
-      </c>
-      <c r="K52">
-        <v>72900</v>
-      </c>
-      <c r="L52" s="4">
-        <f>D52-K52</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>61</v>
       </c>
@@ -3682,7 +3634,7 @@
         <v>74075</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -3693,19 +3645,9 @@
       <c r="I53">
         <v>72600</v>
       </c>
-      <c r="J53" s="4">
-        <f>E53-I53</f>
-        <v>1475</v>
-      </c>
-      <c r="K53">
-        <v>72900</v>
-      </c>
-      <c r="L53" s="4">
-        <f>D53-K53</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>62</v>
       </c>
@@ -3719,7 +3661,7 @@
         <v>73633</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54">
         <v>77</v>
@@ -3730,22 +3672,9 @@
       <c r="I54">
         <v>72600</v>
       </c>
-      <c r="J54" s="4">
-        <f>E54-I54</f>
-        <v>1033</v>
-      </c>
-      <c r="K54">
-        <v>72900</v>
-      </c>
-      <c r="L54" s="4">
-        <f>D54-K54</f>
-        <v>600</v>
-      </c>
-      <c r="N54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>63</v>
       </c>
@@ -3759,7 +3688,7 @@
         <v>73687</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G55">
         <v>628</v>
@@ -3770,19 +3699,9 @@
       <c r="I55">
         <v>72600</v>
       </c>
-      <c r="J55" s="4">
-        <f>E55-I55</f>
-        <v>1087</v>
-      </c>
-      <c r="K55">
-        <v>72900</v>
-      </c>
-      <c r="L55" s="4">
-        <f>D55-K55</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>64</v>
       </c>
@@ -3796,7 +3715,7 @@
         <v>74216</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" s="4">
         <v>2</v>
@@ -3807,19 +3726,8 @@
       <c r="I56" s="4">
         <v>73700</v>
       </c>
-      <c r="J56" s="4">
-        <f>E56-I56</f>
-        <v>516</v>
-      </c>
-      <c r="K56" s="4">
-        <v>74000</v>
-      </c>
-      <c r="L56" s="4">
-        <f>D56-K56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -3833,7 +3741,7 @@
         <v>76618</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57">
         <v>73</v>
@@ -3844,19 +3752,9 @@
       <c r="I57">
         <v>73700</v>
       </c>
-      <c r="J57" s="4">
-        <f>E57-I57</f>
-        <v>2918</v>
-      </c>
-      <c r="K57">
-        <v>76000</v>
-      </c>
-      <c r="L57" s="4">
-        <f>D57-K57</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>66</v>
       </c>
@@ -3870,7 +3768,7 @@
         <v>74830</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
@@ -3881,19 +3779,8 @@
       <c r="I58" s="4">
         <v>73700</v>
       </c>
-      <c r="J58" s="4">
-        <f>E58-I58</f>
-        <v>1130</v>
-      </c>
-      <c r="K58" s="4">
-        <v>74600</v>
-      </c>
-      <c r="L58" s="4">
-        <f>D58-K58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -3907,7 +3794,7 @@
         <v>80759</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59">
         <v>115</v>
@@ -3918,21 +3805,11 @@
       <c r="I59">
         <v>75200</v>
       </c>
-      <c r="J59" s="4">
-        <f>E59-I59</f>
-        <v>5559</v>
-      </c>
-      <c r="K59">
-        <v>79900</v>
-      </c>
-      <c r="L59" s="4">
-        <f>D59-K59</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="3">
         <v>7482</v>
@@ -3944,7 +3821,7 @@
         <v>79099</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="3">
         <v>20</v>
@@ -3955,21 +3832,11 @@
       <c r="I60" s="3">
         <v>75200</v>
       </c>
-      <c r="J60" s="3">
-        <f>E60-I60</f>
-        <v>3899</v>
-      </c>
-      <c r="K60" s="3">
-        <v>78300</v>
-      </c>
-      <c r="L60" s="4">
-        <f>D60-K60</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="3">
         <v>7441</v>
@@ -3981,7 +3848,7 @@
         <v>80020</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3993,25 +3860,224 @@
         <v>75200</v>
       </c>
       <c r="J61" s="3">
-        <f>E61-I61</f>
-        <v>4820</v>
-      </c>
-      <c r="K61" s="3">
-        <v>78300</v>
-      </c>
-      <c r="L61" s="4">
-        <f>D61-K61</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H62" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
       <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
       <c r="G64" s="9"/>
+      <c r="H64">
+        <v>165765</v>
+      </c>
+      <c r="J64">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" t="s">
+        <v>117</v>
+      </c>
+      <c r="J65">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" t="s">
+        <v>123</v>
+      </c>
+      <c r="J67">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" t="s">
+        <v>127</v>
+      </c>
+      <c r="J68">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69" t="s">
+        <v>131</v>
+      </c>
+      <c r="J69">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H70" t="s">
+        <v>135</v>
+      </c>
+      <c r="J70">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71">
+        <v>85100</v>
+      </c>
+      <c r="E71">
+        <v>85127</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71">
+        <v>900</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4022,12 +4088,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B15:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17">
+        <v>165765</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24">
+        <v>85100</v>
+      </c>
+      <c r="E24">
+        <v>85127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>